--- a/biology/Botanique/Asperula_hexaphylla/Asperula_hexaphylla.xlsx
+++ b/biology/Botanique/Asperula_hexaphylla/Asperula_hexaphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperula hexaphylla, l’aspérule à feuilles par six ou aspérule à six feuilles est une espèce de plante herbacée vivace de la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aspérule à feuilles par six est une plante dressée, avec des verticilles de feuilles groupées par six, et une inflorescence de petites fleurs légèrement rosées. Elle mesure entre 8 et 20 cm.
 </t>
@@ -542,7 +556,9 @@
           <t>Cycle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante pluriannuelle.
 Floraison de juin à juillet.</t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des rochers des régions montagneuses. On la rencontre dans le Sud de la France uniquement dans les Alpes-Maritimes mais également en Italie du Nord, en Hongrie, en Roumanie (Transylvanie), en Moldavie, et en Bosnie.
 </t>
